--- a/python_codes/Tobii_project/data/Nishigaichi/mouse/summary.xlsx
+++ b/python_codes/Tobii_project/data/Nishigaichi/mouse/summary.xlsx
@@ -660,10 +660,10 @@
         <v>-198.1652556486004</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9828769426046324</v>
+        <v>0.9828769426046329</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8195087766610833</v>
+        <v>0.8195087766610827</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +725,10 @@
         <v>396.186573704731</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9731599259847704</v>
+        <v>0.9731599259847703</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9349757593622713</v>
+        <v>0.934975759362272</v>
       </c>
     </row>
     <row r="5">
@@ -790,10 +790,10 @@
         <v>-198.4637187273451</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9606949444290758</v>
+        <v>0.9606949444290734</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9440921247434647</v>
+        <v>0.9440921247434646</v>
       </c>
     </row>
     <row r="6">
@@ -855,10 +855,10 @@
         <v>285.7521141290143</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9412910766144902</v>
+        <v>0.9412910766144916</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9257580236714554</v>
+        <v>0.9257580236714548</v>
       </c>
     </row>
     <row r="7">
@@ -920,7 +920,7 @@
         <v>-465.5765354623587</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9426062039104774</v>
+        <v>0.9426062039104767</v>
       </c>
       <c r="U7" t="n">
         <v>0.9598566841809844</v>
@@ -985,10 +985,10 @@
         <v>389.9059444995597</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9464091696012251</v>
+        <v>0.9464091696012247</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9617910656308695</v>
+        <v>0.9617910656308692</v>
       </c>
     </row>
     <row r="9">
@@ -1050,10 +1050,10 @@
         <v>230.7115117290319</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9354726137174361</v>
+        <v>0.9354726137174377</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9723753741019306</v>
+        <v>0.9723753741019322</v>
       </c>
     </row>
     <row r="10">
@@ -1115,10 +1115,10 @@
         <v>-177.9810053772874</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9355448020260165</v>
+        <v>0.9355448020260161</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9518552342784302</v>
+        <v>0.9518552342784298</v>
       </c>
     </row>
     <row r="11">
@@ -1180,10 +1180,10 @@
         <v>335.2488690404883</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9288893896759541</v>
+        <v>0.9288893896759542</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9479660401507913</v>
+        <v>0.9479660401507908</v>
       </c>
     </row>
     <row r="12">
@@ -1245,10 +1245,10 @@
         <v>-13.95405744189276</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9452801104983707</v>
+        <v>0.9452801104983706</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8890957367568272</v>
+        <v>0.8890957367568274</v>
       </c>
     </row>
     <row r="13">
@@ -1310,10 +1310,10 @@
         <v>370.9548489569062</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9583475433413778</v>
+        <v>0.9583475433413779</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004229229994934695</v>
+        <v>0.004229229994934726</v>
       </c>
     </row>
     <row r="14">
@@ -1375,10 +1375,10 @@
         <v>-1004.777193611727</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4799376023142782</v>
+        <v>0.479937602314278</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7190880602291981</v>
+        <v>0.7190880602292006</v>
       </c>
     </row>
     <row r="15">
@@ -1440,7 +1440,7 @@
         <v>-367.7422988391324</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8971099912194601</v>
+        <v>0.8971099912194596</v>
       </c>
       <c r="U15" t="n">
         <v>0.2595078480035684</v>
@@ -1508,7 +1508,7 @@
         <v>0.7250277080238051</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7618476269322407</v>
+        <v>0.7618476269322415</v>
       </c>
     </row>
     <row r="17">
@@ -1573,7 +1573,7 @@
         <v>0.394420634679935</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7024950361169208</v>
+        <v>0.7024950361169212</v>
       </c>
     </row>
     <row r="18">
@@ -1700,10 +1700,10 @@
         <v>12.97809173331994</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9152557563483122</v>
+        <v>0.9152557563483094</v>
       </c>
       <c r="U19" t="n">
-        <v>0.909334580481187</v>
+        <v>0.9093345804811911</v>
       </c>
     </row>
     <row r="20">
@@ -1765,10 +1765,10 @@
         <v>-626.5397147592701</v>
       </c>
       <c r="T20" t="n">
-        <v>0.818093474372883</v>
+        <v>0.8180934743728834</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2836587052316822</v>
+        <v>0.2836587052316836</v>
       </c>
     </row>
     <row r="21">
@@ -1830,10 +1830,10 @@
         <v>-100.6934160916144</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2737550838758706</v>
+        <v>0.2737550838758704</v>
       </c>
       <c r="U21" t="n">
-        <v>0.8288915523627636</v>
+        <v>0.8288915523627602</v>
       </c>
     </row>
     <row r="22">
@@ -1895,10 +1895,10 @@
         <v>-381.3719222971474</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6979960262540509</v>
+        <v>0.6979960262540513</v>
       </c>
       <c r="U22" t="n">
-        <v>0.7109152377933755</v>
+        <v>0.7109152377933732</v>
       </c>
     </row>
     <row r="23">
@@ -1960,10 +1960,10 @@
         <v>-609.6008759056688</v>
       </c>
       <c r="T23" t="n">
-        <v>0.9039322414881391</v>
+        <v>0.9039322414881388</v>
       </c>
       <c r="U23" t="n">
-        <v>0.8019646215631382</v>
+        <v>0.8019646215631393</v>
       </c>
     </row>
     <row r="24">
@@ -2025,10 +2025,10 @@
         <v>413.006607223917</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4190923347280525</v>
+        <v>0.4190923347280529</v>
       </c>
       <c r="U24" t="n">
-        <v>0.5490865740794424</v>
+        <v>0.5490865740794393</v>
       </c>
     </row>
     <row r="25">
@@ -2090,10 +2090,10 @@
         <v>-906.2568996513546</v>
       </c>
       <c r="T25" t="n">
-        <v>0.09312958507566019</v>
+        <v>0.0931295850756601</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5015643515998823</v>
+        <v>0.501564351599882</v>
       </c>
     </row>
     <row r="26">
@@ -2155,10 +2155,10 @@
         <v>423.7552960344391</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8470241858034498</v>
+        <v>0.8470241858034505</v>
       </c>
       <c r="U26" t="n">
-        <v>0.5982910646379749</v>
+        <v>0.5982910646379759</v>
       </c>
     </row>
     <row r="27">
@@ -2220,10 +2220,10 @@
         <v>351.9538756817529</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8368185274654893</v>
+        <v>0.836818527465489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.264560810977733</v>
+        <v>0.2645608109777337</v>
       </c>
     </row>
     <row r="28">
@@ -2285,10 +2285,10 @@
         <v>-123.1983444986952</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02849996261551255</v>
+        <v>0.02849996261551287</v>
       </c>
       <c r="U28" t="n">
-        <v>0.3118621698523544</v>
+        <v>0.3118621698523546</v>
       </c>
     </row>
     <row r="29">
@@ -2350,10 +2350,10 @@
         <v>-61.77611061120152</v>
       </c>
       <c r="T29" t="n">
-        <v>0.9793240574179262</v>
+        <v>0.9793240574179253</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7145575250146634</v>
+        <v>0.714557525014662</v>
       </c>
     </row>
     <row r="30">
@@ -2415,10 +2415,10 @@
         <v>173.5976992208128</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9745548244271032</v>
+        <v>0.974554824427103</v>
       </c>
       <c r="U30" t="n">
-        <v>0.9527187795994538</v>
+        <v>0.9527187795994551</v>
       </c>
     </row>
     <row r="31">
@@ -2480,10 +2480,10 @@
         <v>-84.30243883448841</v>
       </c>
       <c r="T31" t="n">
-        <v>0.977736585950057</v>
+        <v>0.9777365859500549</v>
       </c>
       <c r="U31" t="n">
-        <v>0.9654989850178556</v>
+        <v>0.9654989850178566</v>
       </c>
     </row>
     <row r="32">
@@ -2545,10 +2545,10 @@
         <v>148.993801505698</v>
       </c>
       <c r="T32" t="n">
-        <v>0.9839211316889934</v>
+        <v>0.9839211316889942</v>
       </c>
       <c r="U32" t="n">
-        <v>0.9819098868253133</v>
+        <v>0.9819098868253131</v>
       </c>
     </row>
     <row r="33">
@@ -2610,10 +2610,10 @@
         <v>-171.6355100900656</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9833215218035065</v>
+        <v>0.9833215218035117</v>
       </c>
       <c r="U33" t="n">
-        <v>0.9800105204642195</v>
+        <v>0.9800105204642161</v>
       </c>
     </row>
     <row r="34">
@@ -2675,10 +2675,10 @@
         <v>89.31558427163189</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9432829241671796</v>
+        <v>0.943282924167179</v>
       </c>
       <c r="U34" t="n">
-        <v>0.9294586729256226</v>
+        <v>0.9294586729256239</v>
       </c>
     </row>
     <row r="35">
@@ -2740,10 +2740,10 @@
         <v>-290.7248899439086</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7380105372644531</v>
+        <v>0.7380105372644541</v>
       </c>
       <c r="U35" t="n">
-        <v>0.9092821036474628</v>
+        <v>0.9092821036474614</v>
       </c>
     </row>
     <row r="36">
@@ -2805,10 +2805,10 @@
         <v>907.7532438089872</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9559925115304045</v>
+        <v>0.9559925115304073</v>
       </c>
       <c r="U36" t="n">
-        <v>0.8634468604587334</v>
+        <v>0.8634468604587283</v>
       </c>
     </row>
     <row r="37">
@@ -2870,10 +2870,10 @@
         <v>-312.3524169138103</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8074935732664934</v>
+        <v>0.8074935732664923</v>
       </c>
       <c r="U37" t="n">
-        <v>0.6820276801145817</v>
+        <v>0.6820276801145813</v>
       </c>
     </row>
     <row r="38">
@@ -2935,10 +2935,10 @@
         <v>-47.77413810095885</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7865884009267597</v>
+        <v>0.7865884009267582</v>
       </c>
       <c r="U38" t="n">
-        <v>0.5868321402365844</v>
+        <v>0.5868321402365849</v>
       </c>
     </row>
     <row r="39">
@@ -3000,10 +3000,10 @@
         <v>197.5974465432508</v>
       </c>
       <c r="T39" t="n">
-        <v>0.87444183932505</v>
+        <v>0.8744418393250504</v>
       </c>
       <c r="U39" t="n">
-        <v>0.8327763127400958</v>
+        <v>0.8327763127400959</v>
       </c>
     </row>
     <row r="40">
@@ -3065,10 +3065,10 @@
         <v>-133.7413637817357</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9283340849595025</v>
+        <v>0.9283340849595002</v>
       </c>
       <c r="U40" t="n">
-        <v>0.5640009549625732</v>
+        <v>0.5640009549625721</v>
       </c>
     </row>
     <row r="41">
@@ -3130,10 +3130,10 @@
         <v>477.9753803161635</v>
       </c>
       <c r="T41" t="n">
-        <v>0.9614108489542578</v>
+        <v>0.9614108489542563</v>
       </c>
       <c r="U41" t="n">
-        <v>0.9084840089821592</v>
+        <v>0.9084840089821589</v>
       </c>
     </row>
     <row r="42">
@@ -3195,7 +3195,7 @@
         <v>-27.53845325965474</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9787156893223118</v>
+        <v>0.9787156893223152</v>
       </c>
       <c r="U42" t="n">
         <v>0.5422545912852166</v>
@@ -3260,10 +3260,10 @@
         <v>249.9931808309658</v>
       </c>
       <c r="T43" t="n">
-        <v>0.952745497554227</v>
+        <v>0.9527454975542261</v>
       </c>
       <c r="U43" t="n">
-        <v>0.8900889910462512</v>
+        <v>0.8900889910462509</v>
       </c>
     </row>
     <row r="44">
@@ -3325,10 +3325,10 @@
         <v>-152.4339780137253</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7563266424778954</v>
+        <v>0.756326642477896</v>
       </c>
       <c r="U44" t="n">
-        <v>0.7243267348991455</v>
+        <v>0.724326734899145</v>
       </c>
     </row>
     <row r="45">
@@ -3390,10 +3390,10 @@
         <v>12.03135956926396</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9831482154213479</v>
+        <v>0.9831482154213466</v>
       </c>
       <c r="U45" t="n">
-        <v>0.2935235955391225</v>
+        <v>0.2935235955391223</v>
       </c>
     </row>
     <row r="46">
@@ -3455,10 +3455,10 @@
         <v>-353.2383048691426</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6908885680442952</v>
+        <v>0.6908885680442955</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2567025815240745</v>
+        <v>0.2567025815240741</v>
       </c>
     </row>
     <row r="47">
@@ -3520,10 +3520,10 @@
         <v>-43.43368864814042</v>
       </c>
       <c r="T47" t="n">
-        <v>0.7366724041624141</v>
+        <v>0.736672404162415</v>
       </c>
       <c r="U47" t="n">
-        <v>0.7448059921170335</v>
+        <v>0.7448059921170374</v>
       </c>
     </row>
     <row r="48">
@@ -3585,10 +3585,10 @@
         <v>348.763760685632</v>
       </c>
       <c r="T48" t="n">
-        <v>0.2818204887049061</v>
+        <v>0.2818204887049054</v>
       </c>
       <c r="U48" t="n">
-        <v>0.6741555321181768</v>
+        <v>0.6741555321181759</v>
       </c>
     </row>
     <row r="49">
@@ -3650,10 +3650,10 @@
         <v>-351.1227821090399</v>
       </c>
       <c r="T49" t="n">
-        <v>0.914593775735084</v>
+        <v>0.914593775735081</v>
       </c>
       <c r="U49" t="n">
-        <v>0.9147893525689764</v>
+        <v>0.9147893525689762</v>
       </c>
     </row>
     <row r="50">
@@ -3715,10 +3715,10 @@
         <v>360.9609036225319</v>
       </c>
       <c r="T50" t="n">
-        <v>0.920419067672376</v>
+        <v>0.9204190676723767</v>
       </c>
       <c r="U50" t="n">
-        <v>0.9377769881977051</v>
+        <v>0.9377769881977048</v>
       </c>
     </row>
     <row r="51">
@@ -3780,10 +3780,10 @@
         <v>-592.9353049410453</v>
       </c>
       <c r="T51" t="n">
-        <v>0.6256062373210404</v>
+        <v>0.6256062373210431</v>
       </c>
       <c r="U51" t="n">
-        <v>0.7793329491246218</v>
+        <v>0.7793329491246199</v>
       </c>
     </row>
     <row r="52">
@@ -3845,10 +3845,10 @@
         <v>262.5031107117938</v>
       </c>
       <c r="T52" t="n">
-        <v>0.6154686822570017</v>
+        <v>0.6154686822570014</v>
       </c>
       <c r="U52" t="n">
-        <v>0.9640515762601504</v>
+        <v>0.9640515762601541</v>
       </c>
     </row>
     <row r="53">
@@ -3910,10 +3910,10 @@
         <v>-82.07656656005517</v>
       </c>
       <c r="T53" t="n">
-        <v>0.9203088052103187</v>
+        <v>0.9203088052103232</v>
       </c>
       <c r="U53" t="n">
-        <v>0.7087713612813519</v>
+        <v>0.7087713612813511</v>
       </c>
     </row>
     <row r="54">
@@ -3975,10 +3975,10 @@
         <v>325.3348143407432</v>
       </c>
       <c r="T54" t="n">
-        <v>0.9464121826730486</v>
+        <v>0.9464121826730504</v>
       </c>
       <c r="U54" t="n">
-        <v>0.8908886782694521</v>
+        <v>0.8908886782694515</v>
       </c>
     </row>
     <row r="55">
@@ -4040,10 +4040,10 @@
         <v>-62.26943561987382</v>
       </c>
       <c r="T55" t="n">
-        <v>0.5731263440388408</v>
+        <v>0.5731263440388394</v>
       </c>
       <c r="U55" t="n">
-        <v>0.4716984955804696</v>
+        <v>0.471698495580468</v>
       </c>
     </row>
     <row r="56">
@@ -4105,10 +4105,10 @@
         <v>108.3757125487492</v>
       </c>
       <c r="T56" t="n">
-        <v>0.7488724779567257</v>
+        <v>0.7488724779567245</v>
       </c>
       <c r="U56" t="n">
-        <v>0.7490232116920561</v>
+        <v>0.7490232116920553</v>
       </c>
     </row>
     <row r="57">
@@ -4170,10 +4170,10 @@
         <v>95.39722520466682</v>
       </c>
       <c r="T57" t="n">
-        <v>0.9612828897806762</v>
+        <v>0.9612828897806739</v>
       </c>
       <c r="U57" t="n">
-        <v>0.05076426915568762</v>
+        <v>0.05076426915568766</v>
       </c>
     </row>
     <row r="58">
@@ -4235,10 +4235,10 @@
         <v>-144.9745160851304</v>
       </c>
       <c r="T58" t="n">
-        <v>0.8887945887365848</v>
+        <v>0.8887945887365872</v>
       </c>
       <c r="U58" t="n">
-        <v>0.7340740749223367</v>
+        <v>0.7340740749223361</v>
       </c>
     </row>
     <row r="59">
@@ -4300,10 +4300,10 @@
         <v>293.542597779072</v>
       </c>
       <c r="T59" t="n">
-        <v>0.9466614668143066</v>
+        <v>0.9466614668143073</v>
       </c>
       <c r="U59" t="n">
-        <v>0.8701552115636193</v>
+        <v>0.8701552115636201</v>
       </c>
     </row>
     <row r="60">
@@ -4365,10 +4365,10 @@
         <v>-362.2191456814836</v>
       </c>
       <c r="T60" t="n">
-        <v>0.8261424044381003</v>
+        <v>0.8261424044380969</v>
       </c>
       <c r="U60" t="n">
-        <v>0.8143863014662099</v>
+        <v>0.8143863014662086</v>
       </c>
     </row>
     <row r="61">
@@ -4430,10 +4430,10 @@
         <v>8.869542736805293</v>
       </c>
       <c r="T61" t="n">
-        <v>0.729419289865594</v>
+        <v>0.7294192898655957</v>
       </c>
       <c r="U61" t="n">
-        <v>0.09207997261739302</v>
+        <v>0.09207997261739323</v>
       </c>
     </row>
     <row r="62">
@@ -4495,10 +4495,10 @@
         <v>-112.3262562151355</v>
       </c>
       <c r="T62" t="n">
-        <v>0.9768105419760043</v>
+        <v>0.9768105419760118</v>
       </c>
       <c r="U62" t="n">
-        <v>0.9818366099308934</v>
+        <v>0.9818366099308893</v>
       </c>
     </row>
     <row r="63">
@@ -4560,10 +4560,10 @@
         <v>-56.50933766216662</v>
       </c>
       <c r="T63" t="n">
-        <v>0.8851826561509348</v>
+        <v>0.8851826561509316</v>
       </c>
       <c r="U63" t="n">
-        <v>0.9277831856299943</v>
+        <v>0.9277831856299921</v>
       </c>
     </row>
     <row r="64">
@@ -4625,10 +4625,10 @@
         <v>297.2155198199251</v>
       </c>
       <c r="T64" t="n">
-        <v>0.832787894653533</v>
+        <v>0.8327878946535294</v>
       </c>
       <c r="U64" t="n">
-        <v>0.7984309379521781</v>
+        <v>0.7984309379521776</v>
       </c>
     </row>
     <row r="65">
@@ -4690,10 +4690,10 @@
         <v>168.1028692600284</v>
       </c>
       <c r="T65" t="n">
-        <v>0.958301722704802</v>
+        <v>0.9583017227048043</v>
       </c>
       <c r="U65" t="n">
-        <v>0.9381848021724983</v>
+        <v>0.9381848021725009</v>
       </c>
     </row>
     <row r="66">
@@ -4755,10 +4755,10 @@
         <v>-74.6723489046035</v>
       </c>
       <c r="T66" t="n">
-        <v>0.9717862317124678</v>
+        <v>0.9717862317124694</v>
       </c>
       <c r="U66" t="n">
-        <v>0.9171576879903757</v>
+        <v>0.917157687990376</v>
       </c>
     </row>
     <row r="67">
@@ -4820,10 +4820,10 @@
         <v>334.8666432774522</v>
       </c>
       <c r="T67" t="n">
-        <v>0.9702663045968206</v>
+        <v>0.9702663045968203</v>
       </c>
       <c r="U67" t="n">
-        <v>0.9628856293272525</v>
+        <v>0.9628856293272504</v>
       </c>
     </row>
     <row r="68">
@@ -4885,10 +4885,10 @@
         <v>-145.0216830049709</v>
       </c>
       <c r="T68" t="n">
-        <v>0.9293737081216918</v>
+        <v>0.9293737081216921</v>
       </c>
       <c r="U68" t="n">
-        <v>0.80674314522431</v>
+        <v>0.8067431452243083</v>
       </c>
     </row>
     <row r="69">
@@ -4950,10 +4950,10 @@
         <v>427.1859276200518</v>
       </c>
       <c r="T69" t="n">
-        <v>0.9556047934756898</v>
+        <v>0.9556047934756886</v>
       </c>
       <c r="U69" t="n">
-        <v>0.9154381015829262</v>
+        <v>0.9154381015829296</v>
       </c>
     </row>
     <row r="70">
@@ -5015,10 +5015,10 @@
         <v>-297.6706639144833</v>
       </c>
       <c r="T70" t="n">
-        <v>0.8204816552108956</v>
+        <v>0.8204816552108917</v>
       </c>
       <c r="U70" t="n">
-        <v>0.6536410122466239</v>
+        <v>0.653641012246622</v>
       </c>
     </row>
     <row r="71">
@@ -5080,10 +5080,10 @@
         <v>-342.0015778588564</v>
       </c>
       <c r="T71" t="n">
-        <v>0.351250591104702</v>
+        <v>0.351250591104703</v>
       </c>
       <c r="U71" t="n">
-        <v>0.6680352442479983</v>
+        <v>0.6680352442479982</v>
       </c>
     </row>
     <row r="72">
@@ -5145,10 +5145,10 @@
         <v>463.6460672703775</v>
       </c>
       <c r="T72" t="n">
-        <v>0.9203781546484859</v>
+        <v>0.920378154648482</v>
       </c>
       <c r="U72" t="n">
-        <v>0.8993434459618669</v>
+        <v>0.8993434459618688</v>
       </c>
     </row>
     <row r="73">
@@ -5210,10 +5210,10 @@
         <v>-918.4403981665776</v>
       </c>
       <c r="T73" t="n">
-        <v>0.904564967946958</v>
+        <v>0.9045649679469584</v>
       </c>
       <c r="U73" t="n">
-        <v>0.9229188667466866</v>
+        <v>0.9229188667466871</v>
       </c>
     </row>
     <row r="74">
@@ -5275,10 +5275,10 @@
         <v>445.0050797756751</v>
       </c>
       <c r="T74" t="n">
-        <v>0.9656577540440261</v>
+        <v>0.9656577540440331</v>
       </c>
       <c r="U74" t="n">
-        <v>0.9581346855026044</v>
+        <v>0.9581346855026006</v>
       </c>
     </row>
     <row r="75">
@@ -5340,10 +5340,10 @@
         <v>301.3376141994266</v>
       </c>
       <c r="T75" t="n">
-        <v>0.9286252140409489</v>
+        <v>0.9286252140409496</v>
       </c>
       <c r="U75" t="n">
-        <v>0.403262050702599</v>
+        <v>0.4032620507025994</v>
       </c>
     </row>
     <row r="76">
@@ -5405,10 +5405,10 @@
         <v>-18.66244414489598</v>
       </c>
       <c r="T76" t="n">
-        <v>0.9141721715775767</v>
+        <v>0.9141721715775778</v>
       </c>
       <c r="U76" t="n">
-        <v>0.66794073651342</v>
+        <v>0.6679407365134192</v>
       </c>
     </row>
     <row r="77">
@@ -5470,10 +5470,10 @@
         <v>312.561516074063</v>
       </c>
       <c r="T77" t="n">
-        <v>0.930914892966576</v>
+        <v>0.9309148929665753</v>
       </c>
       <c r="U77" t="n">
-        <v>0.6076208515874694</v>
+        <v>0.6076208515874683</v>
       </c>
     </row>
     <row r="78">
@@ -5535,10 +5535,10 @@
         <v>-208.0462413196836</v>
       </c>
       <c r="T78" t="n">
-        <v>0.9599137046050461</v>
+        <v>0.9599137046050453</v>
       </c>
       <c r="U78" t="n">
-        <v>0.8876884997298996</v>
+        <v>0.8876884997298997</v>
       </c>
     </row>
     <row r="79">
@@ -5600,10 +5600,10 @@
         <v>320.5321860898559</v>
       </c>
       <c r="T79" t="n">
-        <v>0.9695405608458193</v>
+        <v>0.9695405608458205</v>
       </c>
       <c r="U79" t="n">
-        <v>0.9440646821905947</v>
+        <v>0.9440646821905951</v>
       </c>
     </row>
     <row r="80">
@@ -5665,10 +5665,10 @@
         <v>-248.7249713842776</v>
       </c>
       <c r="T80" t="n">
-        <v>0.9650863630633945</v>
+        <v>0.9650863630633946</v>
       </c>
       <c r="U80" t="n">
-        <v>0.9239873621934771</v>
+        <v>0.9239873621934791</v>
       </c>
     </row>
     <row r="81">
@@ -5730,10 +5730,10 @@
         <v>703.1410078343501</v>
       </c>
       <c r="T81" t="n">
-        <v>0.9449332234545138</v>
+        <v>0.9449332234545139</v>
       </c>
       <c r="U81" t="n">
-        <v>0.9463642599372583</v>
+        <v>0.9463642599372578</v>
       </c>
     </row>
     <row r="82">
@@ -5798,7 +5798,7 @@
         <v>0.9519320090581229</v>
       </c>
       <c r="U82" t="n">
-        <v>0.961367002148161</v>
+        <v>0.9613670021481616</v>
       </c>
     </row>
     <row r="83">
@@ -5860,10 +5860,10 @@
         <v>-370.0607590178399</v>
       </c>
       <c r="T83" t="n">
-        <v>0.9240547581036961</v>
+        <v>0.9240547581036958</v>
       </c>
       <c r="U83" t="n">
-        <v>0.979615302399178</v>
+        <v>0.9796153023991778</v>
       </c>
     </row>
     <row r="84">
@@ -5928,7 +5928,7 @@
         <v>0.9847891468016527</v>
       </c>
       <c r="U84" t="n">
-        <v>0.983167941392654</v>
+        <v>0.9831679413926523</v>
       </c>
     </row>
     <row r="85">
@@ -5990,10 +5990,10 @@
         <v>-270.0651017733128</v>
       </c>
       <c r="T85" t="n">
-        <v>0.9670911816796821</v>
+        <v>0.9670911816796842</v>
       </c>
       <c r="U85" t="n">
-        <v>0.9871398755162897</v>
+        <v>0.9871398755162891</v>
       </c>
     </row>
     <row r="86">
@@ -6120,10 +6120,10 @@
         <v>-98.08093322623078</v>
       </c>
       <c r="T87" t="n">
-        <v>0.9776744514559778</v>
+        <v>0.9776744514559802</v>
       </c>
       <c r="U87" t="n">
-        <v>0.9829140235335677</v>
+        <v>0.9829140235335669</v>
       </c>
     </row>
     <row r="88">
@@ -6185,10 +6185,10 @@
         <v>241.8431916818402</v>
       </c>
       <c r="T88" t="n">
-        <v>0.9825393585175533</v>
+        <v>0.9825393585175543</v>
       </c>
       <c r="U88" t="n">
-        <v>0.9530112292927831</v>
+        <v>0.9530112292927811</v>
       </c>
     </row>
     <row r="89">
@@ -6250,10 +6250,10 @@
         <v>228.6424989878648</v>
       </c>
       <c r="T89" t="n">
-        <v>0.9746120486669837</v>
+        <v>0.974612048666984</v>
       </c>
       <c r="U89" t="n">
-        <v>0.1205946853822385</v>
+        <v>0.1205946853822386</v>
       </c>
     </row>
     <row r="90">
@@ -6315,10 +6315,10 @@
         <v>-260.4141834140457</v>
       </c>
       <c r="T90" t="n">
-        <v>0.9830801817834461</v>
+        <v>0.9830801817834455</v>
       </c>
       <c r="U90" t="n">
-        <v>0.4958687334770378</v>
+        <v>0.4958687334770377</v>
       </c>
     </row>
     <row r="91">
@@ -6380,10 +6380,10 @@
         <v>164.8470517842947</v>
       </c>
       <c r="T91" t="n">
-        <v>0.9899029335632124</v>
+        <v>0.9899029335632119</v>
       </c>
       <c r="U91" t="n">
-        <v>0.9710136328135796</v>
+        <v>0.9710136328135794</v>
       </c>
     </row>
     <row r="92">
@@ -6445,10 +6445,10 @@
         <v>-49.20991567876503</v>
       </c>
       <c r="T92" t="n">
-        <v>0.9712331225987674</v>
+        <v>0.9712331225987686</v>
       </c>
       <c r="U92" t="n">
-        <v>0.9538081678630563</v>
+        <v>0.9538081678630582</v>
       </c>
     </row>
     <row r="93">
@@ -6510,10 +6510,10 @@
         <v>375.6132806855649</v>
       </c>
       <c r="T93" t="n">
-        <v>0.9826052764120505</v>
+        <v>0.9826052764120506</v>
       </c>
       <c r="U93" t="n">
-        <v>0.962424377383067</v>
+        <v>0.9624243773830669</v>
       </c>
     </row>
     <row r="94">
@@ -6575,10 +6575,10 @@
         <v>-297.6820684747818</v>
       </c>
       <c r="T94" t="n">
-        <v>0.9753404078779375</v>
+        <v>0.9753404078779384</v>
       </c>
       <c r="U94" t="n">
-        <v>0.9663587043073713</v>
+        <v>0.9663587043073708</v>
       </c>
     </row>
     <row r="95">
@@ -6640,10 +6640,10 @@
         <v>569.0283570385726</v>
       </c>
       <c r="T95" t="n">
-        <v>0.9742498806014473</v>
+        <v>0.9742498806014468</v>
       </c>
       <c r="U95" t="n">
-        <v>0.9690855704230622</v>
+        <v>0.9690855704230611</v>
       </c>
     </row>
     <row r="96">
@@ -6705,10 +6705,10 @@
         <v>-196.5122725108581</v>
       </c>
       <c r="T96" t="n">
-        <v>0.9242547738660498</v>
+        <v>0.9242547738660495</v>
       </c>
       <c r="U96" t="n">
-        <v>0.9166148713890305</v>
+        <v>0.9166148713890302</v>
       </c>
     </row>
     <row r="97">
@@ -6770,10 +6770,10 @@
         <v>379.7267691548648</v>
       </c>
       <c r="T97" t="n">
-        <v>0.442237116280193</v>
+        <v>0.442237116280192</v>
       </c>
       <c r="U97" t="n">
-        <v>0.9653682996660684</v>
+        <v>0.9653682996660694</v>
       </c>
     </row>
     <row r="98">
@@ -6900,10 +6900,10 @@
         <v>368.2439357010514</v>
       </c>
       <c r="T99" t="n">
-        <v>0.817535064121174</v>
+        <v>0.8175350641211739</v>
       </c>
       <c r="U99" t="n">
-        <v>0.9786147567592585</v>
+        <v>0.9786147567592589</v>
       </c>
     </row>
     <row r="100">
@@ -6968,7 +6968,7 @@
         <v>0.9636050814556132</v>
       </c>
       <c r="U100" t="n">
-        <v>0.9832888206729338</v>
+        <v>0.9832888206729345</v>
       </c>
     </row>
     <row r="101">
@@ -7030,10 +7030,10 @@
         <v>401.6873800902045</v>
       </c>
       <c r="T101" t="n">
-        <v>0.9860574620492984</v>
+        <v>0.9860574620492982</v>
       </c>
       <c r="U101" t="n">
-        <v>0.9422092931278014</v>
+        <v>0.9422092931278013</v>
       </c>
     </row>
     <row r="102">
@@ -7095,7 +7095,7 @@
         <v>-279.373388661684</v>
       </c>
       <c r="T102" t="n">
-        <v>0.9876581898435707</v>
+        <v>0.98765818984357</v>
       </c>
       <c r="U102" t="n">
         <v>0.9739643937272404</v>
@@ -7160,7 +7160,7 @@
         <v>368.78231446604</v>
       </c>
       <c r="T103" t="n">
-        <v>0.978665188704968</v>
+        <v>0.9786651887049674</v>
       </c>
       <c r="U103" t="n">
         <v>0.8768185071331011</v>
@@ -7225,10 +7225,10 @@
         <v>78.88677203545889</v>
       </c>
       <c r="T104" t="n">
-        <v>0.9318382229944102</v>
+        <v>0.93183822299441</v>
       </c>
       <c r="U104" t="n">
-        <v>0.8954735838690845</v>
+        <v>0.8954735838690853</v>
       </c>
     </row>
     <row r="105">
@@ -7290,10 +7290,10 @@
         <v>409.5564231211537</v>
       </c>
       <c r="T105" t="n">
-        <v>0.9271112081799979</v>
+        <v>0.9271112081799974</v>
       </c>
       <c r="U105" t="n">
-        <v>0.8769765859529993</v>
+        <v>0.8769765859529989</v>
       </c>
     </row>
     <row r="106">
@@ -7355,10 +7355,10 @@
         <v>-140.8166212882638</v>
       </c>
       <c r="T106" t="n">
-        <v>0.9606775620492988</v>
+        <v>0.9606775620492959</v>
       </c>
       <c r="U106" t="n">
-        <v>0.9628083482496564</v>
+        <v>0.9628083482496541</v>
       </c>
     </row>
     <row r="107">
@@ -7420,10 +7420,10 @@
         <v>146.8586645319689</v>
       </c>
       <c r="T107" t="n">
-        <v>0.8558365826724806</v>
+        <v>0.8558365826724801</v>
       </c>
       <c r="U107" t="n">
-        <v>0.8648387349886417</v>
+        <v>0.8648387349886412</v>
       </c>
     </row>
     <row r="108">
@@ -7485,10 +7485,10 @@
         <v>-347.4833322671304</v>
       </c>
       <c r="T108" t="n">
-        <v>0.9820985319682999</v>
+        <v>0.9820985319682991</v>
       </c>
       <c r="U108" t="n">
-        <v>0.9819514526899915</v>
+        <v>0.9819514526899937</v>
       </c>
     </row>
     <row r="109">
@@ -7550,10 +7550,10 @@
         <v>358.1657065947842</v>
       </c>
       <c r="T109" t="n">
-        <v>0.8485196597220805</v>
+        <v>0.848519659722081</v>
       </c>
       <c r="U109" t="n">
-        <v>0.8791538936032363</v>
+        <v>0.879153893603236</v>
       </c>
     </row>
     <row r="110">
@@ -7615,10 +7615,10 @@
         <v>-378.6198722209011</v>
       </c>
       <c r="T110" t="n">
-        <v>0.7853197331152385</v>
+        <v>0.7853197331152388</v>
       </c>
       <c r="U110" t="n">
-        <v>0.9568429104115569</v>
+        <v>0.9568429104115566</v>
       </c>
     </row>
     <row r="111">
@@ -7680,10 +7680,10 @@
         <v>-130.9998414714417</v>
       </c>
       <c r="T111" t="n">
-        <v>0.8756361085171943</v>
+        <v>0.8756361085171944</v>
       </c>
       <c r="U111" t="n">
-        <v>0.983970657434306</v>
+        <v>0.9839706574343048</v>
       </c>
     </row>
     <row r="112">
@@ -7745,10 +7745,10 @@
         <v>294.943720216895</v>
       </c>
       <c r="T112" t="n">
-        <v>0.9676284213087023</v>
+        <v>0.967628421308704</v>
       </c>
       <c r="U112" t="n">
-        <v>0.9843575865384898</v>
+        <v>0.9843575865384894</v>
       </c>
     </row>
     <row r="113">
@@ -7810,10 +7810,10 @@
         <v>-338.2692219438244</v>
       </c>
       <c r="T113" t="n">
-        <v>0.9769454410470115</v>
+        <v>0.9769454410470119</v>
       </c>
       <c r="U113" t="n">
-        <v>0.977478909663971</v>
+        <v>0.9774789096639713</v>
       </c>
     </row>
     <row r="114">
@@ -7875,10 +7875,10 @@
         <v>285.6213338067556</v>
       </c>
       <c r="T114" t="n">
-        <v>0.9753198120964106</v>
+        <v>0.9753198120964108</v>
       </c>
       <c r="U114" t="n">
-        <v>0.9808062550837786</v>
+        <v>0.9808062550837778</v>
       </c>
     </row>
     <row r="115">
@@ -7940,7 +7940,7 @@
         <v>-122.7676567509643</v>
       </c>
       <c r="T115" t="n">
-        <v>0.985850154083919</v>
+        <v>0.9858501540839183</v>
       </c>
       <c r="U115" t="n">
         <v>0.9590769987199227</v>
@@ -8005,10 +8005,10 @@
         <v>318.05575311085</v>
       </c>
       <c r="T116" t="n">
-        <v>0.972655465459357</v>
+        <v>0.9726554654593564</v>
       </c>
       <c r="U116" t="n">
-        <v>0.9468251848023684</v>
+        <v>0.9468251848023654</v>
       </c>
     </row>
     <row r="117">
@@ -8070,10 +8070,10 @@
         <v>167.5047864717899</v>
       </c>
       <c r="T117" t="n">
-        <v>0.9638363350023605</v>
+        <v>0.9638363350023608</v>
       </c>
       <c r="U117" t="n">
-        <v>0.142652571667281</v>
+        <v>0.1426525716672806</v>
       </c>
     </row>
     <row r="118">
@@ -8135,10 +8135,10 @@
         <v>-6.953530619803085</v>
       </c>
       <c r="T118" t="n">
-        <v>0.9207515054675353</v>
+        <v>0.9207515054675361</v>
       </c>
       <c r="U118" t="n">
-        <v>0.5635663735798004</v>
+        <v>0.5635663735797991</v>
       </c>
     </row>
     <row r="119">
@@ -8200,10 +8200,10 @@
         <v>187.6279664851979</v>
       </c>
       <c r="T119" t="n">
-        <v>0.9774378970160926</v>
+        <v>0.9774378970160933</v>
       </c>
       <c r="U119" t="n">
-        <v>0.9408250182197616</v>
+        <v>0.9408250182197621</v>
       </c>
     </row>
     <row r="120">
@@ -8265,10 +8265,10 @@
         <v>-99.64550070693197</v>
       </c>
       <c r="T120" t="n">
-        <v>0.9715828061263003</v>
+        <v>0.9715828061262987</v>
       </c>
       <c r="U120" t="n">
-        <v>0.9639325082223336</v>
+        <v>0.9639325082223343</v>
       </c>
     </row>
     <row r="121">
@@ -8330,10 +8330,10 @@
         <v>244.7860765689982</v>
       </c>
       <c r="T121" t="n">
-        <v>0.9264239072733846</v>
+        <v>0.9264239072733848</v>
       </c>
       <c r="U121" t="n">
-        <v>0.9339022817434812</v>
+        <v>0.9339022817434789</v>
       </c>
     </row>
     <row r="122">
@@ -8395,10 +8395,10 @@
         <v>-135.4036327011588</v>
       </c>
       <c r="T122" t="n">
-        <v>0.9525619140621417</v>
+        <v>0.9525619140621431</v>
       </c>
       <c r="U122" t="n">
-        <v>0.9515997451954092</v>
+        <v>0.9515997451954122</v>
       </c>
     </row>
     <row r="123">
@@ -8460,10 +8460,10 @@
         <v>496.0858056619113</v>
       </c>
       <c r="T123" t="n">
-        <v>0.8884906333837376</v>
+        <v>0.8884906333837365</v>
       </c>
       <c r="U123" t="n">
-        <v>0.8852130505080579</v>
+        <v>0.8852130505080557</v>
       </c>
     </row>
     <row r="124">
@@ -8525,10 +8525,10 @@
         <v>-369.0492025744734</v>
       </c>
       <c r="T124" t="n">
-        <v>0.6318708337468203</v>
+        <v>0.6318708337468206</v>
       </c>
       <c r="U124" t="n">
-        <v>0.9248774715687652</v>
+        <v>0.9248774715687638</v>
       </c>
     </row>
     <row r="125">
@@ -8590,10 +8590,10 @@
         <v>441.2955136809612</v>
       </c>
       <c r="T125" t="n">
-        <v>0.5001745486856397</v>
+        <v>0.5001745486856393</v>
       </c>
       <c r="U125" t="n">
-        <v>0.9489927992596219</v>
+        <v>0.9489927992596212</v>
       </c>
     </row>
     <row r="126">
@@ -8655,10 +8655,10 @@
         <v>-176.2738296285865</v>
       </c>
       <c r="T126" t="n">
-        <v>0.771371023570842</v>
+        <v>0.7713710235708405</v>
       </c>
       <c r="U126" t="n">
-        <v>0.7569741507880822</v>
+        <v>0.7569741507880818</v>
       </c>
     </row>
     <row r="127">
@@ -8720,10 +8720,10 @@
         <v>151.7196003628478</v>
       </c>
       <c r="T127" t="n">
-        <v>0.9619826424226234</v>
+        <v>0.9619826424226227</v>
       </c>
       <c r="U127" t="n">
-        <v>0.9515377301918218</v>
+        <v>0.9515377301918224</v>
       </c>
     </row>
     <row r="128">
@@ -8785,10 +8785,10 @@
         <v>-293.7592874318649</v>
       </c>
       <c r="T128" t="n">
-        <v>0.9694826264533718</v>
+        <v>0.9694826264533702</v>
       </c>
       <c r="U128" t="n">
-        <v>0.9809556279459</v>
+        <v>0.9809556279459005</v>
       </c>
     </row>
     <row r="129">
@@ -8850,10 +8850,10 @@
         <v>275.7277509625522</v>
       </c>
       <c r="T129" t="n">
-        <v>0.9470105146270493</v>
+        <v>0.9470105146270499</v>
       </c>
       <c r="U129" t="n">
-        <v>0.9300221820840153</v>
+        <v>0.9300221820840164</v>
       </c>
     </row>
     <row r="130">
@@ -8915,10 +8915,10 @@
         <v>-68.9970046976815</v>
       </c>
       <c r="T130" t="n">
-        <v>0.7654117260549034</v>
+        <v>0.7654117260549033</v>
       </c>
       <c r="U130" t="n">
-        <v>0.7314756980546236</v>
+        <v>0.7314756980546232</v>
       </c>
     </row>
     <row r="131">
@@ -8983,7 +8983,7 @@
         <v>0.9254103111823327</v>
       </c>
       <c r="U131" t="n">
-        <v>0.9112767373727764</v>
+        <v>0.9112767373727749</v>
       </c>
     </row>
     <row r="132">
@@ -9045,10 +9045,10 @@
         <v>319.5564757131268</v>
       </c>
       <c r="T132" t="n">
-        <v>0.9575283434169231</v>
+        <v>0.9575283434169235</v>
       </c>
       <c r="U132" t="n">
-        <v>0.6655823240596952</v>
+        <v>0.6655823240596951</v>
       </c>
     </row>
     <row r="133">
@@ -9110,10 +9110,10 @@
         <v>-88.5372995792561</v>
       </c>
       <c r="T133" t="n">
-        <v>0.9766650190355959</v>
+        <v>0.9766650190355961</v>
       </c>
       <c r="U133" t="n">
-        <v>0.3924898967043838</v>
+        <v>0.3924898967043832</v>
       </c>
     </row>
     <row r="134">
@@ -9175,10 +9175,10 @@
         <v>211.8694954805656</v>
       </c>
       <c r="T134" t="n">
-        <v>0.9750054553825952</v>
+        <v>0.9750054553825981</v>
       </c>
       <c r="U134" t="n">
-        <v>0.9434716088016191</v>
+        <v>0.9434716088016187</v>
       </c>
     </row>
     <row r="135">
@@ -9240,10 +9240,10 @@
         <v>-75.01869136565422</v>
       </c>
       <c r="T135" t="n">
-        <v>0.9682784096861831</v>
+        <v>0.9682784096861811</v>
       </c>
       <c r="U135" t="n">
-        <v>0.9148687352209309</v>
+        <v>0.9148687352209319</v>
       </c>
     </row>
     <row r="136">
@@ -9305,10 +9305,10 @@
         <v>288.5721787326165</v>
       </c>
       <c r="T136" t="n">
-        <v>0.9734769205050892</v>
+        <v>0.9734769205050897</v>
       </c>
       <c r="U136" t="n">
-        <v>0.9697187730954797</v>
+        <v>0.9697187730954799</v>
       </c>
     </row>
     <row r="137">
@@ -9370,10 +9370,10 @@
         <v>-121.7612536611981</v>
       </c>
       <c r="T137" t="n">
-        <v>0.947504353049383</v>
+        <v>0.9475043530493807</v>
       </c>
       <c r="U137" t="n">
-        <v>0.9200757072485347</v>
+        <v>0.9200757072485348</v>
       </c>
     </row>
     <row r="138">
@@ -9435,10 +9435,10 @@
         <v>236.2625206951061</v>
       </c>
       <c r="T138" t="n">
-        <v>0.9351853704047485</v>
+        <v>0.9351853704047479</v>
       </c>
       <c r="U138" t="n">
-        <v>0.9721084839448741</v>
+        <v>0.9721084839448758</v>
       </c>
     </row>
     <row r="139">
@@ -9500,10 +9500,10 @@
         <v>-381.1139206977019</v>
       </c>
       <c r="T139" t="n">
-        <v>0.9226401162969364</v>
+        <v>0.9226401162969381</v>
       </c>
       <c r="U139" t="n">
-        <v>0.9631381499300431</v>
+        <v>0.9631381499300433</v>
       </c>
     </row>
     <row r="140">
@@ -9565,10 +9565,10 @@
         <v>437.9890119967108</v>
       </c>
       <c r="T140" t="n">
-        <v>0.5545865964071259</v>
+        <v>0.5545865964071262</v>
       </c>
       <c r="U140" t="n">
-        <v>0.9551037042689521</v>
+        <v>0.9551037042689546</v>
       </c>
     </row>
     <row r="141">
@@ -9633,7 +9633,7 @@
         <v>0.833159757296744</v>
       </c>
       <c r="U141" t="n">
-        <v>0.9809136033631195</v>
+        <v>0.9809136033631199</v>
       </c>
     </row>
     <row r="142">
@@ -9698,7 +9698,7 @@
         <v>0.9581513961089627</v>
       </c>
       <c r="U142" t="n">
-        <v>0.9660451429998045</v>
+        <v>0.9660451429998062</v>
       </c>
     </row>
     <row r="143">
@@ -9760,10 +9760,10 @@
         <v>-392.0543606016998</v>
       </c>
       <c r="T143" t="n">
-        <v>0.9734341941763663</v>
+        <v>0.9734341941763666</v>
       </c>
       <c r="U143" t="n">
-        <v>0.9858116303858728</v>
+        <v>0.9858116303858731</v>
       </c>
     </row>
     <row r="144">
@@ -9825,10 +9825,10 @@
         <v>391.3751040220237</v>
       </c>
       <c r="T144" t="n">
-        <v>0.9674166336240965</v>
+        <v>0.9674166336240961</v>
       </c>
       <c r="U144" t="n">
-        <v>0.9612276241039106</v>
+        <v>0.9612276241039104</v>
       </c>
     </row>
     <row r="145">
@@ -9955,7 +9955,7 @@
         <v>162.6561383565954</v>
       </c>
       <c r="T146" t="n">
-        <v>0.9838503852395257</v>
+        <v>0.9838503852395223</v>
       </c>
       <c r="U146" t="n">
         <v>0.9558663195209394</v>
@@ -10020,10 +10020,10 @@
         <v>38.58705954285897</v>
       </c>
       <c r="T147" t="n">
-        <v>0.9563841263100693</v>
+        <v>0.9563841263100689</v>
       </c>
       <c r="U147" t="n">
-        <v>0.8809093403227122</v>
+        <v>0.8809093403227131</v>
       </c>
     </row>
     <row r="148">
@@ -10085,10 +10085,10 @@
         <v>273.0201199998709</v>
       </c>
       <c r="T148" t="n">
-        <v>0.9703741714490361</v>
+        <v>0.9703741714490369</v>
       </c>
       <c r="U148" t="n">
-        <v>0.9438658854959556</v>
+        <v>0.9438658854959538</v>
       </c>
     </row>
     <row r="149">
@@ -10150,10 +10150,10 @@
         <v>-280.2681453801981</v>
       </c>
       <c r="T149" t="n">
-        <v>0.9677322909176791</v>
+        <v>0.9677322909176777</v>
       </c>
       <c r="U149" t="n">
-        <v>0.9471369808080256</v>
+        <v>0.9471369808080211</v>
       </c>
     </row>
     <row r="150">
@@ -10215,10 +10215,10 @@
         <v>406.7047229169416</v>
       </c>
       <c r="T150" t="n">
-        <v>0.938412606948571</v>
+        <v>0.9384126069485706</v>
       </c>
       <c r="U150" t="n">
-        <v>0.9020963204314426</v>
+        <v>0.9020963204314436</v>
       </c>
     </row>
     <row r="151">
@@ -10280,10 +10280,10 @@
         <v>-471.300668497855</v>
       </c>
       <c r="T151" t="n">
-        <v>0.8915061995109144</v>
+        <v>0.8915061995109183</v>
       </c>
       <c r="U151" t="n">
-        <v>0.9607977131593047</v>
+        <v>0.9607977131593087</v>
       </c>
     </row>
     <row r="152">
@@ -10345,10 +10345,10 @@
         <v>394.5669246764589</v>
       </c>
       <c r="T152" t="n">
-        <v>0.7605428978663487</v>
+        <v>0.7605428978663503</v>
       </c>
       <c r="U152" t="n">
-        <v>0.7682555014805825</v>
+        <v>0.768255501480581</v>
       </c>
     </row>
     <row r="153">
@@ -10410,10 +10410,10 @@
         <v>-366.7183179210411</v>
       </c>
       <c r="T153" t="n">
-        <v>0.8873834460435391</v>
+        <v>0.8873834460435399</v>
       </c>
       <c r="U153" t="n">
-        <v>0.9721802466370965</v>
+        <v>0.9721802466370963</v>
       </c>
     </row>
     <row r="154">
@@ -10475,10 +10475,10 @@
         <v>-475.2631099588272</v>
       </c>
       <c r="T154" t="n">
-        <v>0.8696287781590697</v>
+        <v>0.8696287781590678</v>
       </c>
       <c r="U154" t="n">
-        <v>0.9695702422561308</v>
+        <v>0.9695702422561298</v>
       </c>
     </row>
     <row r="155">
@@ -10540,10 +10540,10 @@
         <v>452.1010116402766</v>
       </c>
       <c r="T155" t="n">
-        <v>0.9511975218646525</v>
+        <v>0.9511975218646542</v>
       </c>
       <c r="U155" t="n">
-        <v>0.9351460814131221</v>
+        <v>0.9351460814131223</v>
       </c>
     </row>
     <row r="156">
@@ -10673,7 +10673,7 @@
         <v>0.9736398253053941</v>
       </c>
       <c r="U157" t="n">
-        <v>0.9725782962404431</v>
+        <v>0.9725782962404432</v>
       </c>
     </row>
     <row r="158">
@@ -10735,7 +10735,7 @@
         <v>-26.21749827799687</v>
       </c>
       <c r="T158" t="n">
-        <v>0.9774383501979036</v>
+        <v>0.9774383501979035</v>
       </c>
       <c r="U158" t="n">
         <v>0.9073552652778399</v>
@@ -10800,10 +10800,10 @@
         <v>163.1626619333574</v>
       </c>
       <c r="T159" t="n">
-        <v>0.9835964885533208</v>
+        <v>0.9835964885533192</v>
       </c>
       <c r="U159" t="n">
-        <v>0.8318071946124503</v>
+        <v>0.8318071946124499</v>
       </c>
     </row>
     <row r="160">
@@ -10865,10 +10865,10 @@
         <v>62.55397004132114</v>
       </c>
       <c r="T160" t="n">
-        <v>0.9522083868664869</v>
+        <v>0.9522083868664862</v>
       </c>
       <c r="U160" t="n">
-        <v>0.7140495379792858</v>
+        <v>0.7140495379792843</v>
       </c>
     </row>
     <row r="161">
@@ -10930,10 +10930,10 @@
         <v>76.61529767853899</v>
       </c>
       <c r="T161" t="n">
-        <v>0.9567884921685347</v>
+        <v>0.9567884921685348</v>
       </c>
       <c r="U161" t="n">
-        <v>0.9462239519576817</v>
+        <v>0.9462239519576829</v>
       </c>
     </row>
     <row r="162">
@@ -10995,10 +10995,10 @@
         <v>-155.5583580778204</v>
       </c>
       <c r="T162" t="n">
-        <v>0.9230125436998169</v>
+        <v>0.9230125436998137</v>
       </c>
       <c r="U162" t="n">
-        <v>0.8823592125240164</v>
+        <v>0.8823592125240174</v>
       </c>
     </row>
     <row r="163">
@@ -11060,10 +11060,10 @@
         <v>467.6214402937484</v>
       </c>
       <c r="T163" t="n">
-        <v>0.9713604021265431</v>
+        <v>0.9713604021265413</v>
       </c>
       <c r="U163" t="n">
-        <v>0.9501208713670667</v>
+        <v>0.9501208713670669</v>
       </c>
     </row>
     <row r="164">
@@ -11125,10 +11125,10 @@
         <v>-296.8105759441664</v>
       </c>
       <c r="T164" t="n">
-        <v>0.9704907967343208</v>
+        <v>0.9704907967343197</v>
       </c>
       <c r="U164" t="n">
-        <v>0.9624443286483635</v>
+        <v>0.962444328648361</v>
       </c>
     </row>
     <row r="165">
@@ -11190,10 +11190,10 @@
         <v>385.0176293708956</v>
       </c>
       <c r="T165" t="n">
-        <v>0.9737493274534399</v>
+        <v>0.9737493274534401</v>
       </c>
       <c r="U165" t="n">
-        <v>0.9802195966411047</v>
+        <v>0.9802195966411043</v>
       </c>
     </row>
     <row r="166">
@@ -11255,10 +11255,10 @@
         <v>-606.2846318777007</v>
       </c>
       <c r="T166" t="n">
-        <v>0.7031551418975246</v>
+        <v>0.7031551418975258</v>
       </c>
       <c r="U166" t="n">
-        <v>0.9675777027075275</v>
+        <v>0.9675777027075295</v>
       </c>
     </row>
     <row r="167">
@@ -11320,10 +11320,10 @@
         <v>570.2227948662862</v>
       </c>
       <c r="T167" t="n">
-        <v>0.3404107419741023</v>
+        <v>0.3404107419741018</v>
       </c>
       <c r="U167" t="n">
-        <v>0.9368037838271868</v>
+        <v>0.9368037838271878</v>
       </c>
     </row>
     <row r="168">
@@ -11385,7 +11385,7 @@
         <v>-738.5664706729374</v>
       </c>
       <c r="T168" t="n">
-        <v>0.8398142050312773</v>
+        <v>0.8398142050312777</v>
       </c>
       <c r="U168" t="n">
         <v>0.9742257016386261</v>
@@ -11453,7 +11453,7 @@
         <v>0.9431426905276646</v>
       </c>
       <c r="U169" t="n">
-        <v>0.9658645918044222</v>
+        <v>0.9658645918044221</v>
       </c>
     </row>
     <row r="170">
@@ -11515,10 +11515,10 @@
         <v>-369.1981800737387</v>
       </c>
       <c r="T170" t="n">
-        <v>0.9768939164649805</v>
+        <v>0.9768939164649807</v>
       </c>
       <c r="U170" t="n">
-        <v>0.9714121083804688</v>
+        <v>0.9714121083804689</v>
       </c>
     </row>
     <row r="171">
@@ -11580,10 +11580,10 @@
         <v>168.4570709563098</v>
       </c>
       <c r="T171" t="n">
-        <v>0.9688208647767088</v>
+        <v>0.968820864776708</v>
       </c>
       <c r="U171" t="n">
-        <v>0.9766170421263053</v>
+        <v>0.9766170421263052</v>
       </c>
     </row>
     <row r="172">
@@ -11648,7 +11648,7 @@
         <v>0.9751952213679849</v>
       </c>
       <c r="U172" t="n">
-        <v>0.9320595382024719</v>
+        <v>0.9320595382024716</v>
       </c>
     </row>
     <row r="173">
@@ -11710,10 +11710,10 @@
         <v>249.0897647412963</v>
       </c>
       <c r="T173" t="n">
-        <v>0.9804520716601587</v>
+        <v>0.9804520716601594</v>
       </c>
       <c r="U173" t="n">
-        <v>0.937079246767854</v>
+        <v>0.9370792467678525</v>
       </c>
     </row>
     <row r="174">
@@ -11775,7 +11775,7 @@
         <v>40.28295672425533</v>
       </c>
       <c r="T174" t="n">
-        <v>0.9774863188234507</v>
+        <v>0.9774863188234512</v>
       </c>
       <c r="U174" t="n">
         <v>0.7362696173061226</v>
@@ -11840,10 +11840,10 @@
         <v>292.7370451035134</v>
       </c>
       <c r="T175" t="n">
-        <v>0.9815322345365817</v>
+        <v>0.981532234536581</v>
       </c>
       <c r="U175" t="n">
-        <v>0.9146883145279083</v>
+        <v>0.9146883145279091</v>
       </c>
     </row>
     <row r="176">
@@ -11905,10 +11905,10 @@
         <v>17.43718578308017</v>
       </c>
       <c r="T176" t="n">
-        <v>0.9773796740333223</v>
+        <v>0.9773796740333194</v>
       </c>
       <c r="U176" t="n">
-        <v>0.9658512712348674</v>
+        <v>0.9658512712348655</v>
       </c>
     </row>
     <row r="177">
@@ -11970,10 +11970,10 @@
         <v>515.2974883308327</v>
       </c>
       <c r="T177" t="n">
-        <v>0.9713700300212423</v>
+        <v>0.9713700300212422</v>
       </c>
       <c r="U177" t="n">
-        <v>0.9761476879452213</v>
+        <v>0.976147687945222</v>
       </c>
     </row>
     <row r="178">
@@ -12035,10 +12035,10 @@
         <v>-709.5912134355159</v>
       </c>
       <c r="T178" t="n">
-        <v>0.9623032678536645</v>
+        <v>0.9623032678536634</v>
       </c>
       <c r="U178" t="n">
-        <v>0.9597958066525628</v>
+        <v>0.9597958066525625</v>
       </c>
     </row>
     <row r="179">
@@ -12100,10 +12100,10 @@
         <v>367.0676574810206</v>
       </c>
       <c r="T179" t="n">
-        <v>0.8971457966206616</v>
+        <v>0.8971457966206612</v>
       </c>
       <c r="U179" t="n">
-        <v>0.9605850524903183</v>
+        <v>0.9605850524903193</v>
       </c>
     </row>
     <row r="180">
@@ -12165,10 +12165,10 @@
         <v>-274.3762884778088</v>
       </c>
       <c r="T180" t="n">
-        <v>0.8813631696245884</v>
+        <v>0.8813631696245886</v>
       </c>
       <c r="U180" t="n">
-        <v>0.9027354099149282</v>
+        <v>0.90273540991493</v>
       </c>
     </row>
     <row r="181">
@@ -12233,7 +12233,7 @@
         <v>0.8812712615669767</v>
       </c>
       <c r="U181" t="n">
-        <v>0.9545058207303102</v>
+        <v>0.9545058207303101</v>
       </c>
     </row>
     <row r="182">
@@ -12295,10 +12295,10 @@
         <v>218.1232275239792</v>
       </c>
       <c r="T182" t="n">
-        <v>0.6959708763773113</v>
+        <v>0.6959708763773099</v>
       </c>
       <c r="U182" t="n">
-        <v>0.9130490405955645</v>
+        <v>0.9130490405955631</v>
       </c>
     </row>
     <row r="183">
@@ -12360,10 +12360,10 @@
         <v>-231.4867455743909</v>
       </c>
       <c r="T183" t="n">
-        <v>0.9718991420210005</v>
+        <v>0.9718991420210007</v>
       </c>
       <c r="U183" t="n">
-        <v>0.9737373136256532</v>
+        <v>0.9737373136256539</v>
       </c>
     </row>
     <row r="184">
@@ -12428,7 +12428,7 @@
         <v>0.9389906430628958</v>
       </c>
       <c r="U184" t="n">
-        <v>0.9635115061345786</v>
+        <v>0.9635115061345787</v>
       </c>
     </row>
     <row r="185">
@@ -12493,7 +12493,7 @@
         <v>0.9429975629948999</v>
       </c>
       <c r="U185" t="n">
-        <v>0.8427812135621352</v>
+        <v>0.8427812135621349</v>
       </c>
     </row>
     <row r="186">
@@ -12555,10 +12555,10 @@
         <v>370.3205082539481</v>
       </c>
       <c r="T186" t="n">
-        <v>0.9765810114725862</v>
+        <v>0.9765810114725866</v>
       </c>
       <c r="U186" t="n">
-        <v>0.8701036741888478</v>
+        <v>0.8701036741888473</v>
       </c>
     </row>
     <row r="187">
@@ -12620,10 +12620,10 @@
         <v>335.7738307197055</v>
       </c>
       <c r="T187" t="n">
-        <v>0.9407391740680667</v>
+        <v>0.9407391740680678</v>
       </c>
       <c r="U187" t="n">
-        <v>0.1184723395154365</v>
+        <v>0.1184723395154363</v>
       </c>
     </row>
     <row r="188">
@@ -12688,7 +12688,7 @@
         <v>0.9804894981448702</v>
       </c>
       <c r="U188" t="n">
-        <v>0.7621176585503694</v>
+        <v>0.7621176585503695</v>
       </c>
     </row>
     <row r="189">
@@ -12750,10 +12750,10 @@
         <v>276.8126098409977</v>
       </c>
       <c r="T189" t="n">
-        <v>0.9822243250722865</v>
+        <v>0.982224325072287</v>
       </c>
       <c r="U189" t="n">
-        <v>0.8445030755333716</v>
+        <v>0.8445030755333719</v>
       </c>
     </row>
     <row r="190">
@@ -12815,10 +12815,10 @@
         <v>-303.3232948090968</v>
       </c>
       <c r="T190" t="n">
-        <v>0.9597163691893802</v>
+        <v>0.95971636918938</v>
       </c>
       <c r="U190" t="n">
-        <v>0.9229893422211668</v>
+        <v>0.9229893422211671</v>
       </c>
     </row>
     <row r="191">
@@ -12880,7 +12880,7 @@
         <v>491.2889715555725</v>
       </c>
       <c r="T191" t="n">
-        <v>0.947895189888259</v>
+        <v>0.9478951898882588</v>
       </c>
       <c r="U191" t="n">
         <v>0.9216773672427411</v>
@@ -12945,10 +12945,10 @@
         <v>-266.7478277935107</v>
       </c>
       <c r="T192" t="n">
-        <v>0.966245368566893</v>
+        <v>0.9662453685668927</v>
       </c>
       <c r="U192" t="n">
-        <v>0.9719731181041589</v>
+        <v>0.9719731181041588</v>
       </c>
     </row>
     <row r="193">
@@ -13010,10 +13010,10 @@
         <v>653.0160914892371</v>
       </c>
       <c r="T193" t="n">
-        <v>0.9317378130490988</v>
+        <v>0.9317378130490991</v>
       </c>
       <c r="U193" t="n">
-        <v>0.9496168275169551</v>
+        <v>0.9496168275169549</v>
       </c>
     </row>
     <row r="194">
@@ -13075,10 +13075,10 @@
         <v>-570.6331987732815</v>
       </c>
       <c r="T194" t="n">
-        <v>0.6454695270858866</v>
+        <v>0.6454695270858865</v>
       </c>
       <c r="U194" t="n">
-        <v>0.9734037282469103</v>
+        <v>0.9734037282469097</v>
       </c>
     </row>
     <row r="195">
@@ -13143,7 +13143,7 @@
         <v>0.1316962620261878</v>
       </c>
       <c r="U195" t="n">
-        <v>0.8310061507394046</v>
+        <v>0.8310061507394048</v>
       </c>
     </row>
     <row r="196">
@@ -13205,10 +13205,10 @@
         <v>-678.2303765486552</v>
       </c>
       <c r="T196" t="n">
-        <v>0.7644986119473829</v>
+        <v>0.7644986119473831</v>
       </c>
       <c r="U196" t="n">
-        <v>0.8321906095807388</v>
+        <v>0.8321906095807385</v>
       </c>
     </row>
     <row r="197">
@@ -13270,10 +13270,10 @@
         <v>523.9316108711521</v>
       </c>
       <c r="T197" t="n">
-        <v>0.8950992079574164</v>
+        <v>0.8950992079574162</v>
       </c>
       <c r="U197" t="n">
-        <v>0.7143943828201291</v>
+        <v>0.7143943828201278</v>
       </c>
     </row>
     <row r="198">
@@ -13338,7 +13338,7 @@
         <v>0.9644594813450448</v>
       </c>
       <c r="U198" t="n">
-        <v>0.9720909550994857</v>
+        <v>0.9720909550994848</v>
       </c>
     </row>
     <row r="199">
@@ -13400,10 +13400,10 @@
         <v>347.4352778738489</v>
       </c>
       <c r="T199" t="n">
-        <v>0.9824134116562349</v>
+        <v>0.9824134116562344</v>
       </c>
       <c r="U199" t="n">
-        <v>0.9755480091498736</v>
+        <v>0.9755480091498742</v>
       </c>
     </row>
     <row r="200">
@@ -13465,10 +13465,10 @@
         <v>-420.1393676316464</v>
       </c>
       <c r="T200" t="n">
-        <v>0.9797234046106261</v>
+        <v>0.9797234046106263</v>
       </c>
       <c r="U200" t="n">
-        <v>0.9099854990321218</v>
+        <v>0.9099854990321214</v>
       </c>
     </row>
     <row r="201">
@@ -13530,10 +13530,10 @@
         <v>155.1067952303262</v>
       </c>
       <c r="T201" t="n">
-        <v>0.9788871477157277</v>
+        <v>0.9788871477157294</v>
       </c>
       <c r="U201" t="n">
-        <v>0.9583679465250031</v>
+        <v>0.9583679465250009</v>
       </c>
     </row>
   </sheetData>
